--- a/biology/Médecine/Georg_Heinrich_Gottlieb_Jahr/Georg_Heinrich_Gottlieb_Jahr.xlsx
+++ b/biology/Médecine/Georg_Heinrich_Gottlieb_Jahr/Georg_Heinrich_Gottlieb_Jahr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Georg Heinrich Gottlieb Jahr (français :  Georges Henri Gottlieb Jahr, né le 30 janvier 1800 à NeudietendorfNeudietendorf, mort le 11 juillet 1875 à Bruxelles) est un médecin germanophone français, pionnier de l'homéopathie, qui a publié le premier répertoire homéopathique en 1835.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études dans un collège de la Moravie, autour de 1825, il fait la connaissance de Samuel Hahnemann, dont il devient assistant. Sur la recommandation de Hahnemann, il va à l'université de Bonn pour suivre une formation médicale. Après avoir obtenu son diplôme, il se rend à Liège afin de pratiquer, mais bientôt, suivant Hahnemann, celui-ci déménage à Paris en 1835. C'est là qu'il devient docteur en médecine en 1840. Il quitte Paris pour la Belgique lors du déclenchement de la guerre franco-prussienne en 1870. En Belgique, il se rend d'abord à Liège, puis à Gand, et enfin à Bruxelles. Sans diplôme belge, il n'est pas autorisé à exercer la médecine en Belgique, et cela limite ses revenus.
 </t>
@@ -542,7 +556,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Beaucoup de ses nombreux ouvrages ont été publiés en français et en allemand, et traduit en anglais par Charles Julius Hempel et d'autres. Parmi eux sont traités sur le traitement homéopathique de choléra, des maladies nerveuses et mentales, les maladies de la peau, etc., et un Homéopathique Pharmacopée.
 </t>
